--- a/medicine/Sexualité et sexologie/Test_du_Mull_of_Kintyre/Test_du_Mull_of_Kintyre.xlsx
+++ b/medicine/Sexualité et sexologie/Test_du_Mull_of_Kintyre/Test_du_Mull_of_Kintyre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le test du Mull of Kintyre  est une légende urbaine selon laquelle une carte géographique du Kintyre était utilisée par le British Board of Film Classification (BBFC) au Royaume-Uni pour voir si une image d'un pénis humain pouvait être diffusée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le test du Mull of Kintyre  est une légende urbaine selon laquelle une carte géographique du Kintyre était utilisée par le British Board of Film Classification (BBFC) au Royaume-Uni pour voir si une image d'un pénis humain pouvait être diffusée.
 Le BBFC n'aurait pas permis la diffusion d'un film ou d'une vidéo s'il contenait un pénis en érection dont l'angle à partir de la verticale était plus grand que celui du Mull of Kintyre (Argyll and Bute), sur les cartes de l'Écosse.
-Selon le professeur John Hoyles de l'Université de Hull, la directive fut adoptée par le BBFC en 1992.[réf. nécessaire] L'avocat écossais Richard Findlay, lors d'une entrevue avec Annette McCann en 1999, le mentionna comme un ancien « adage » pratique pour déterminer ce qui était permis ou non, regrettant que les choses soient devenues plus complexes[2]. Ce test fut ensuite adopté par les chaînes de télévision britanniques et par quelques maisons d'édition.[réf. nécessaire]
-L'écrivaine Emily Dubberley, cofondatrice de la revue de pornographie féminine Scarlet Magazine pensait cette légende vraie, et y voyait, alors qu'elle était étudiante de première année en psychologie, un double standard permis par la croyance que les femmes ne répondaient pas érotiquement aux stimuli visuels, limitant ainsi le développement d'une pornographie féminine ;  elle s'interdisit à ce titre en 2005 la représentation de pénis en érection dans le magazine nouvellement créé[3].
-En 2000, une porte-parole du BBFC nia l'existence de ce test[4].
+Selon le professeur John Hoyles de l'Université de Hull, la directive fut adoptée par le BBFC en 1992.[réf. nécessaire] L'avocat écossais Richard Findlay, lors d'une entrevue avec Annette McCann en 1999, le mentionna comme un ancien « adage » pratique pour déterminer ce qui était permis ou non, regrettant que les choses soient devenues plus complexes. Ce test fut ensuite adopté par les chaînes de télévision britanniques et par quelques maisons d'édition.[réf. nécessaire]
+L'écrivaine Emily Dubberley, cofondatrice de la revue de pornographie féminine Scarlet Magazine pensait cette légende vraie, et y voyait, alors qu'elle était étudiante de première année en psychologie, un double standard permis par la croyance que les femmes ne répondaient pas érotiquement aux stimuli visuels, limitant ainsi le développement d'une pornographie féminine ;  elle s'interdisit à ce titre en 2005 la représentation de pénis en érection dans le magazine nouvellement créé.
+En 2000, une porte-parole du BBFC nia l'existence de ce test.
 En 2002, le BBFC avait largement abandonné ses restrictions sur les images du pénis en érection, et autorisa en 2003 par une série de Channel 4 appelée Under the Knife with Miss Evans.[réf. nécessaire]
 </t>
         </is>
